--- a/other files/Sample_list_IS_April2024.xlsx
+++ b/other files/Sample_list_IS_April2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/other files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimj704/Github/tempest_ionic_strength/other files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADBA85E-29D2-9346-ABD5-4192D68CFBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D50C7-8F53-4041-835F-1F8546C82413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{CD4913F7-E543-1B4A-9636-0EAA2EEBC566}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>Random_ID</t>
   </si>
@@ -810,6 +810,351 @@
   </si>
   <si>
     <t>Running_Number</t>
+  </si>
+  <si>
+    <t>EMSL_ID</t>
+  </si>
+  <si>
+    <t>EUP60985_122</t>
+  </si>
+  <si>
+    <t>EUP60985_123</t>
+  </si>
+  <si>
+    <t>EUP60985_124</t>
+  </si>
+  <si>
+    <t>EUP60985_125</t>
+  </si>
+  <si>
+    <t>EUP60985_126</t>
+  </si>
+  <si>
+    <t>EUP60985_127</t>
+  </si>
+  <si>
+    <t>EUP60985_128</t>
+  </si>
+  <si>
+    <t>EUP60985_129</t>
+  </si>
+  <si>
+    <t>EUP60985_130</t>
+  </si>
+  <si>
+    <t>EUP60985_131</t>
+  </si>
+  <si>
+    <t>EUP60985_132</t>
+  </si>
+  <si>
+    <t>EUP60985_133</t>
+  </si>
+  <si>
+    <t>EUP60985_134</t>
+  </si>
+  <si>
+    <t>EUP60985_135</t>
+  </si>
+  <si>
+    <t>EUP60985_136</t>
+  </si>
+  <si>
+    <t>EUP60985_137</t>
+  </si>
+  <si>
+    <t>EUP60985_138</t>
+  </si>
+  <si>
+    <t>EUP60985_139</t>
+  </si>
+  <si>
+    <t>EUP60985_140</t>
+  </si>
+  <si>
+    <t>EUP60985_141</t>
+  </si>
+  <si>
+    <t>EUP60985_142</t>
+  </si>
+  <si>
+    <t>EUP60985_143</t>
+  </si>
+  <si>
+    <t>EUP60985_144</t>
+  </si>
+  <si>
+    <t>EUP60985_145</t>
+  </si>
+  <si>
+    <t>EUP60985_146</t>
+  </si>
+  <si>
+    <t>EUP60985_147</t>
+  </si>
+  <si>
+    <t>EUP60985_148</t>
+  </si>
+  <si>
+    <t>EUP60985_149</t>
+  </si>
+  <si>
+    <t>EUP60985_150</t>
+  </si>
+  <si>
+    <t>EUP60985_151</t>
+  </si>
+  <si>
+    <t>EUP60985_152</t>
+  </si>
+  <si>
+    <t>EUP60985_153</t>
+  </si>
+  <si>
+    <t>EUP60985_154</t>
+  </si>
+  <si>
+    <t>EUP60985_155</t>
+  </si>
+  <si>
+    <t>EUP60985_156</t>
+  </si>
+  <si>
+    <t>EUP60985_157</t>
+  </si>
+  <si>
+    <t>EUP60985_158</t>
+  </si>
+  <si>
+    <t>EUP60985_159</t>
+  </si>
+  <si>
+    <t>EUP60985_160</t>
+  </si>
+  <si>
+    <t>EUP60985_161</t>
+  </si>
+  <si>
+    <t>EUP60985_162</t>
+  </si>
+  <si>
+    <t>EUP60985_163</t>
+  </si>
+  <si>
+    <t>EUP60985_164</t>
+  </si>
+  <si>
+    <t>EUP60985_165</t>
+  </si>
+  <si>
+    <t>EUP60985_166</t>
+  </si>
+  <si>
+    <t>EUP60985_167</t>
+  </si>
+  <si>
+    <t>EUP60985_168</t>
+  </si>
+  <si>
+    <t>EUP60985_169</t>
+  </si>
+  <si>
+    <t>EUP60985_170</t>
+  </si>
+  <si>
+    <t>EUP60985_171</t>
+  </si>
+  <si>
+    <t>EUP60985_172</t>
+  </si>
+  <si>
+    <t>EUP60985_173</t>
+  </si>
+  <si>
+    <t>EUP60985_174</t>
+  </si>
+  <si>
+    <t>EUP60985_175</t>
+  </si>
+  <si>
+    <t>EUP60985_176</t>
+  </si>
+  <si>
+    <t>EUP60985_177</t>
+  </si>
+  <si>
+    <t>EUP60985_178</t>
+  </si>
+  <si>
+    <t>EUP60985_179</t>
+  </si>
+  <si>
+    <t>EUP60985_180</t>
+  </si>
+  <si>
+    <t>EUP60985_181</t>
+  </si>
+  <si>
+    <t>EUP60985_182</t>
+  </si>
+  <si>
+    <t>EUP60985_183</t>
+  </si>
+  <si>
+    <t>EUP60985_184</t>
+  </si>
+  <si>
+    <t>EUP60985_185</t>
+  </si>
+  <si>
+    <t>EUP60985_186</t>
+  </si>
+  <si>
+    <t>EUP60985_187</t>
+  </si>
+  <si>
+    <t>EUP60985_188</t>
+  </si>
+  <si>
+    <t>EUP60985_189</t>
+  </si>
+  <si>
+    <t>EUP60985_190</t>
+  </si>
+  <si>
+    <t>EUP60985_191</t>
+  </si>
+  <si>
+    <t>EUP60985_192</t>
+  </si>
+  <si>
+    <t>EUP60985_193</t>
+  </si>
+  <si>
+    <t>EUP60985_194</t>
+  </si>
+  <si>
+    <t>EUP60985_195</t>
+  </si>
+  <si>
+    <t>EUP60985_196</t>
+  </si>
+  <si>
+    <t>EUP60985_197</t>
+  </si>
+  <si>
+    <t>EUP60985_198</t>
+  </si>
+  <si>
+    <t>EUP60985_199</t>
+  </si>
+  <si>
+    <t>EUP60985_200</t>
+  </si>
+  <si>
+    <t>EUP60985_201</t>
+  </si>
+  <si>
+    <t>EUP60985_202</t>
+  </si>
+  <si>
+    <t>EUP60985_203</t>
+  </si>
+  <si>
+    <t>EUP60985_204</t>
+  </si>
+  <si>
+    <t>EUP60985_205</t>
+  </si>
+  <si>
+    <t>EUP60985_206</t>
+  </si>
+  <si>
+    <t>EUP60985_207</t>
+  </si>
+  <si>
+    <t>EUP60985_208</t>
+  </si>
+  <si>
+    <t>EUP60985_209</t>
+  </si>
+  <si>
+    <t>EUP60985_210</t>
+  </si>
+  <si>
+    <t>EUP60985_211</t>
+  </si>
+  <si>
+    <t>EUP60985_212</t>
+  </si>
+  <si>
+    <t>EUP60985_213</t>
+  </si>
+  <si>
+    <t>EUP60985_214</t>
+  </si>
+  <si>
+    <t>EUP60985_215</t>
+  </si>
+  <si>
+    <t>EUP60985_216</t>
+  </si>
+  <si>
+    <t>EUP60985_217</t>
+  </si>
+  <si>
+    <t>EUP60985_218</t>
+  </si>
+  <si>
+    <t>EUP60985_219</t>
+  </si>
+  <si>
+    <t>EUP60985_220</t>
+  </si>
+  <si>
+    <t>EUP60985_221</t>
+  </si>
+  <si>
+    <t>EUP60985_222</t>
+  </si>
+  <si>
+    <t>EUP60985_223</t>
+  </si>
+  <si>
+    <t>EUP60985_224</t>
+  </si>
+  <si>
+    <t>EUP60985_225</t>
+  </si>
+  <si>
+    <t>EUP60985_226</t>
+  </si>
+  <si>
+    <t>EUP60985_227</t>
+  </si>
+  <si>
+    <t>EUP60985_228</t>
+  </si>
+  <si>
+    <t>EUP60985_229</t>
+  </si>
+  <si>
+    <t>EUP60985_230</t>
+  </si>
+  <si>
+    <t>EUP60985_231</t>
+  </si>
+  <si>
+    <t>EUP60985_232</t>
+  </si>
+  <si>
+    <t>EUP60985_233</t>
+  </si>
+  <si>
+    <t>EUP60985_234</t>
+  </si>
+  <si>
+    <t>EUP60985_235</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95B7879-C151-174A-8321-E8FF670A2CB8}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,9 +1569,10 @@
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>257</v>
       </c>
@@ -1245,8 +1591,11 @@
       <c r="F1" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1265,8 +1614,11 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1286,7 +1638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1306,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1325,8 +1677,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1345,8 +1700,11 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1365,8 +1723,11 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1385,8 +1746,11 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1405,8 +1769,11 @@
       <c r="F9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1425,8 +1792,11 @@
       <c r="F10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1445,8 +1815,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1465,8 +1838,11 @@
       <c r="F12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1485,8 +1861,11 @@
       <c r="F13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1505,8 +1884,11 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1525,8 +1907,11 @@
       <c r="F15" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1545,8 +1930,11 @@
       <c r="F16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1565,8 +1953,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1585,8 +1976,11 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1605,8 +1999,11 @@
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1625,8 +2022,11 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1645,8 +2045,11 @@
       <c r="F21" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1665,8 +2068,11 @@
       <c r="F22" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1685,8 +2091,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1706,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1726,7 +2135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1745,8 +2154,11 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1765,8 +2177,11 @@
       <c r="F27" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1785,8 +2200,11 @@
       <c r="F28" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1805,8 +2223,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1825,8 +2246,11 @@
       <c r="F30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1845,8 +2269,11 @@
       <c r="F31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1865,8 +2292,11 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1885,8 +2315,11 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1905,8 +2338,11 @@
       <c r="F34" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1925,8 +2361,11 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1945,8 +2384,11 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1965,8 +2407,11 @@
       <c r="F37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1985,8 +2430,11 @@
       <c r="F38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2005,8 +2453,11 @@
       <c r="F39" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2025,8 +2476,11 @@
       <c r="F40" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2045,8 +2499,11 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2065,8 +2522,11 @@
       <c r="F42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2085,8 +2545,11 @@
       <c r="F43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2105,8 +2568,11 @@
       <c r="F44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2126,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2146,7 +2612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2165,8 +2631,11 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2185,8 +2654,11 @@
       <c r="F48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2205,8 +2677,11 @@
       <c r="F49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2225,8 +2700,11 @@
       <c r="F50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2245,8 +2723,11 @@
       <c r="F51" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2265,8 +2746,11 @@
       <c r="F52" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2285,8 +2769,11 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2305,8 +2792,11 @@
       <c r="F54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2325,8 +2815,11 @@
       <c r="F55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2345,8 +2838,11 @@
       <c r="F56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2365,8 +2861,11 @@
       <c r="F57" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2385,8 +2884,11 @@
       <c r="F58" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2405,8 +2907,11 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2425,8 +2930,11 @@
       <c r="F60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2445,8 +2953,11 @@
       <c r="F61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2465,8 +2976,11 @@
       <c r="F62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2485,8 +2999,11 @@
       <c r="F63" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2505,8 +3022,11 @@
       <c r="F64" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2525,8 +3045,11 @@
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2546,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2566,7 +3089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2585,8 +3108,11 @@
       <c r="F68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G68" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2605,8 +3131,11 @@
       <c r="F69" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G69" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2625,8 +3154,11 @@
       <c r="F70" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2645,8 +3177,11 @@
       <c r="F71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2665,8 +3200,11 @@
       <c r="F72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2685,8 +3223,11 @@
       <c r="F73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2705,8 +3246,11 @@
       <c r="F74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G74" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2725,8 +3269,11 @@
       <c r="F75" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2745,8 +3292,11 @@
       <c r="F76" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2765,8 +3315,11 @@
       <c r="F77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2785,8 +3338,11 @@
       <c r="F78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2805,8 +3361,11 @@
       <c r="F79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2825,8 +3384,11 @@
       <c r="F80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G80" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2845,8 +3407,11 @@
       <c r="F81" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G81" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2865,8 +3430,11 @@
       <c r="F82" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2885,8 +3453,11 @@
       <c r="F83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2905,8 +3476,11 @@
       <c r="F84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2925,8 +3499,11 @@
       <c r="F85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -2945,8 +3522,11 @@
       <c r="F86" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -2966,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -2986,7 +3566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3005,8 +3585,11 @@
       <c r="F89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3025,8 +3608,11 @@
       <c r="F90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3045,8 +3631,11 @@
       <c r="F91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3065,8 +3654,11 @@
       <c r="F92" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G92" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3085,8 +3677,11 @@
       <c r="F93" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G93" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3105,8 +3700,11 @@
       <c r="F94" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3125,8 +3723,11 @@
       <c r="F95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3145,8 +3746,11 @@
       <c r="F96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3165,8 +3769,11 @@
       <c r="F97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3185,8 +3792,11 @@
       <c r="F98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G98" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3205,8 +3815,11 @@
       <c r="F99" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3225,8 +3838,11 @@
       <c r="F100" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3245,8 +3861,11 @@
       <c r="F101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3265,8 +3884,11 @@
       <c r="F102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3285,8 +3907,11 @@
       <c r="F103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -3305,8 +3930,11 @@
       <c r="F104" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G104" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -3325,8 +3953,11 @@
       <c r="F105" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G105" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -3345,8 +3976,11 @@
       <c r="F106" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3365,8 +3999,11 @@
       <c r="F107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3386,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3406,7 +4043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -3425,8 +4062,11 @@
       <c r="F110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G110" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -3445,8 +4085,11 @@
       <c r="F111" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G111" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -3465,8 +4108,11 @@
       <c r="F112" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3485,8 +4131,11 @@
       <c r="F113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3505,8 +4154,11 @@
       <c r="F114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3525,8 +4177,11 @@
       <c r="F115">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -3545,8 +4200,11 @@
       <c r="F116" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G116" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -3565,8 +4223,11 @@
       <c r="F117" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G117" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -3585,8 +4246,11 @@
       <c r="F118" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3605,8 +4269,11 @@
       <c r="F119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3625,8 +4292,11 @@
       <c r="F120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3645,8 +4315,11 @@
       <c r="F121">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -3665,8 +4338,11 @@
       <c r="F122" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G122" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -3685,8 +4361,11 @@
       <c r="F123" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G123" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -3705,8 +4384,11 @@
       <c r="F124" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3725,8 +4407,11 @@
       <c r="F125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3745,8 +4430,11 @@
       <c r="F126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3764,6 +4452,9 @@
       </c>
       <c r="F127">
         <v>3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
